--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fgf13-Scn8a.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fgf13-Scn8a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,6 +95,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.57639749872259</v>
+        <v>0.04968833333333333</v>
       </c>
       <c r="H2">
-        <v>2.57639749872259</v>
+        <v>0.149065</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.0179140656029871</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.02630081541085045</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.428214477924322</v>
+        <v>0.432277</v>
       </c>
       <c r="N2">
-        <v>0.428214477924322</v>
+        <v>0.864554</v>
       </c>
       <c r="O2">
-        <v>0.3127977632443071</v>
+        <v>0.2396122099901011</v>
       </c>
       <c r="P2">
-        <v>0.3127977632443071</v>
+        <v>0.1928077070094661</v>
       </c>
       <c r="Q2">
-        <v>1.103250709841023</v>
+        <v>0.02147912366833334</v>
       </c>
       <c r="R2">
-        <v>1.103250709841023</v>
+        <v>0.12887474201</v>
       </c>
       <c r="S2">
-        <v>0.3127977632443071</v>
+        <v>0.004292428849039393</v>
       </c>
       <c r="T2">
-        <v>0.3127977632443071</v>
+        <v>0.005070999911845303</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.57639749872259</v>
+        <v>0.04968833333333333</v>
       </c>
       <c r="H3">
-        <v>2.57639749872259</v>
+        <v>0.149065</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.0179140656029871</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.02630081541085045</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.518417987227241</v>
+        <v>0.5358619999999999</v>
       </c>
       <c r="N3">
-        <v>0.518417987227241</v>
+        <v>1.607586</v>
       </c>
       <c r="O3">
-        <v>0.3786887066881358</v>
+        <v>0.2970296316244342</v>
       </c>
       <c r="P3">
-        <v>0.3786887066881358</v>
+        <v>0.3585142981011244</v>
       </c>
       <c r="Q3">
-        <v>1.335650805585063</v>
+        <v>0.02662608967666667</v>
       </c>
       <c r="R3">
-        <v>1.335650805585063</v>
+        <v>0.23963480709</v>
       </c>
       <c r="S3">
-        <v>0.3786887066881358</v>
+        <v>0.005321008306951207</v>
       </c>
       <c r="T3">
-        <v>0.3786887066881358</v>
+        <v>0.009429218376508283</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +652,805 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.04968833333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.149065</v>
+      </c>
+      <c r="I4">
+        <v>0.0179140656029871</v>
+      </c>
+      <c r="J4">
+        <v>0.02630081541085045</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.014879</v>
+      </c>
+      <c r="N4">
+        <v>0.044637</v>
+      </c>
+      <c r="O4">
+        <v>0.00824746649126073</v>
+      </c>
+      <c r="P4">
+        <v>0.009954679080521908</v>
+      </c>
+      <c r="Q4">
+        <v>0.0007393127116666668</v>
+      </c>
+      <c r="R4">
+        <v>0.006653814405000001</v>
+      </c>
+      <c r="S4">
+        <v>0.0001477456557828826</v>
+      </c>
+      <c r="T4">
+        <v>0.0002618161769710611</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.04968833333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.149065</v>
+      </c>
+      <c r="I5">
+        <v>0.0179140656029871</v>
+      </c>
+      <c r="J5">
+        <v>0.02630081541085045</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.3251426666666666</v>
+      </c>
+      <c r="N5">
+        <v>0.975428</v>
+      </c>
+      <c r="O5">
+        <v>0.1802273841126749</v>
+      </c>
+      <c r="P5">
+        <v>0.2175341691008653</v>
+      </c>
+      <c r="Q5">
+        <v>0.01615579720222222</v>
+      </c>
+      <c r="R5">
+        <v>0.14540217482</v>
+      </c>
+      <c r="S5">
+        <v>0.003228605182449214</v>
+      </c>
+      <c r="T5">
+        <v>0.005721326027074584</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>2.57639749872259</v>
-      </c>
-      <c r="H4">
-        <v>2.57639749872259</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.422349440226929</v>
-      </c>
-      <c r="N4">
-        <v>0.422349440226929</v>
-      </c>
-      <c r="O4">
-        <v>0.3085135300675571</v>
-      </c>
-      <c r="P4">
-        <v>0.3085135300675571</v>
-      </c>
-      <c r="Q4">
-        <v>1.088140041387546</v>
-      </c>
-      <c r="R4">
-        <v>1.088140041387546</v>
-      </c>
-      <c r="S4">
-        <v>0.3085135300675571</v>
-      </c>
-      <c r="T4">
-        <v>0.3085135300675571</v>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.04968833333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.149065</v>
+      </c>
+      <c r="I6">
+        <v>0.0179140656029871</v>
+      </c>
+      <c r="J6">
+        <v>0.02630081541085045</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.4959085</v>
+      </c>
+      <c r="N6">
+        <v>0.9918169999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.2748833077815291</v>
+      </c>
+      <c r="P6">
+        <v>0.2211891467080224</v>
+      </c>
+      <c r="Q6">
+        <v>0.02464086685083333</v>
+      </c>
+      <c r="R6">
+        <v>0.147845201105</v>
+      </c>
+      <c r="S6">
+        <v>0.004924277608764406</v>
+      </c>
+      <c r="T6">
+        <v>0.005817454918451216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.07059666666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.21179</v>
+      </c>
+      <c r="I7">
+        <v>0.02545211789525803</v>
+      </c>
+      <c r="J7">
+        <v>0.03736792470307595</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.432277</v>
+      </c>
+      <c r="N7">
+        <v>0.864554</v>
+      </c>
+      <c r="O7">
+        <v>0.2396122099901011</v>
+      </c>
+      <c r="P7">
+        <v>0.1928077070094661</v>
+      </c>
+      <c r="Q7">
+        <v>0.03051731527666667</v>
+      </c>
+      <c r="R7">
+        <v>0.18310389166</v>
+      </c>
+      <c r="S7">
+        <v>0.006098638217811378</v>
+      </c>
+      <c r="T7">
+        <v>0.007204823877702458</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.07059666666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.21179</v>
+      </c>
+      <c r="I8">
+        <v>0.02545211789525803</v>
+      </c>
+      <c r="J8">
+        <v>0.03736792470307595</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.5358619999999999</v>
+      </c>
+      <c r="N8">
+        <v>1.607586</v>
+      </c>
+      <c r="O8">
+        <v>0.2970296316244342</v>
+      </c>
+      <c r="P8">
+        <v>0.3585142981011244</v>
+      </c>
+      <c r="Q8">
+        <v>0.03783007099333333</v>
+      </c>
+      <c r="R8">
+        <v>0.34047063894</v>
+      </c>
+      <c r="S8">
+        <v>0.007560033202490163</v>
+      </c>
+      <c r="T8">
+        <v>0.01339693529641894</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.07059666666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.21179</v>
+      </c>
+      <c r="I9">
+        <v>0.02545211789525803</v>
+      </c>
+      <c r="J9">
+        <v>0.03736792470307595</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.014879</v>
+      </c>
+      <c r="N9">
+        <v>0.044637</v>
+      </c>
+      <c r="O9">
+        <v>0.00824746649126073</v>
+      </c>
+      <c r="P9">
+        <v>0.009954679080521908</v>
+      </c>
+      <c r="Q9">
+        <v>0.001050407803333333</v>
+      </c>
+      <c r="R9">
+        <v>0.009453670230000001</v>
+      </c>
+      <c r="S9">
+        <v>0.0002099154894727582</v>
+      </c>
+      <c r="T9">
+        <v>0.0003719856983242279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.07059666666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.21179</v>
+      </c>
+      <c r="I10">
+        <v>0.02545211789525803</v>
+      </c>
+      <c r="J10">
+        <v>0.03736792470307595</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.3251426666666666</v>
+      </c>
+      <c r="N10">
+        <v>0.975428</v>
+      </c>
+      <c r="O10">
+        <v>0.1802273841126749</v>
+      </c>
+      <c r="P10">
+        <v>0.2175341691008653</v>
+      </c>
+      <c r="Q10">
+        <v>0.02295398845777778</v>
+      </c>
+      <c r="R10">
+        <v>0.20658589612</v>
+      </c>
+      <c r="S10">
+        <v>0.004587168628389756</v>
+      </c>
+      <c r="T10">
+        <v>0.008128800451307323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.07059666666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.21179</v>
+      </c>
+      <c r="I11">
+        <v>0.02545211789525803</v>
+      </c>
+      <c r="J11">
+        <v>0.03736792470307595</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.4959085</v>
+      </c>
+      <c r="N11">
+        <v>0.9918169999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.2748833077815291</v>
+      </c>
+      <c r="P11">
+        <v>0.2211891467080224</v>
+      </c>
+      <c r="Q11">
+        <v>0.03500948707166666</v>
+      </c>
+      <c r="R11">
+        <v>0.21005692243</v>
+      </c>
+      <c r="S11">
+        <v>0.006996362357093978</v>
+      </c>
+      <c r="T11">
+        <v>0.008265379379323002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.65342</v>
+      </c>
+      <c r="H12">
+        <v>5.306839999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.9566338165017548</v>
+      </c>
+      <c r="J12">
+        <v>0.9363312598860736</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.432277</v>
+      </c>
+      <c r="N12">
+        <v>0.864554</v>
+      </c>
+      <c r="O12">
+        <v>0.2396122099901011</v>
+      </c>
+      <c r="P12">
+        <v>0.1928077070094661</v>
+      </c>
+      <c r="Q12">
+        <v>1.14701243734</v>
+      </c>
+      <c r="R12">
+        <v>4.58804974936</v>
+      </c>
+      <c r="S12">
+        <v>0.2292211429232504</v>
+      </c>
+      <c r="T12">
+        <v>0.1805318832199183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.65342</v>
+      </c>
+      <c r="H13">
+        <v>5.306839999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.9566338165017548</v>
+      </c>
+      <c r="J13">
+        <v>0.9363312598860736</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.5358619999999999</v>
+      </c>
+      <c r="N13">
+        <v>1.607586</v>
+      </c>
+      <c r="O13">
+        <v>0.2970296316244342</v>
+      </c>
+      <c r="P13">
+        <v>0.3585142981011244</v>
+      </c>
+      <c r="Q13">
+        <v>1.42186694804</v>
+      </c>
+      <c r="R13">
+        <v>8.531201688239999</v>
+      </c>
+      <c r="S13">
+        <v>0.2841485901149929</v>
+      </c>
+      <c r="T13">
+        <v>0.3356881444281972</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.65342</v>
+      </c>
+      <c r="H14">
+        <v>5.306839999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.9566338165017548</v>
+      </c>
+      <c r="J14">
+        <v>0.9363312598860736</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.014879</v>
+      </c>
+      <c r="N14">
+        <v>0.044637</v>
+      </c>
+      <c r="O14">
+        <v>0.00824746649126073</v>
+      </c>
+      <c r="P14">
+        <v>0.009954679080521908</v>
+      </c>
+      <c r="Q14">
+        <v>0.03948023618</v>
+      </c>
+      <c r="R14">
+        <v>0.23688141708</v>
+      </c>
+      <c r="S14">
+        <v>0.007889805346005089</v>
+      </c>
+      <c r="T14">
+        <v>0.009320877205226619</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.65342</v>
+      </c>
+      <c r="H15">
+        <v>5.306839999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.9566338165017548</v>
+      </c>
+      <c r="J15">
+        <v>0.9363312598860736</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.3251426666666666</v>
+      </c>
+      <c r="N15">
+        <v>0.975428</v>
+      </c>
+      <c r="O15">
+        <v>0.1802273841126749</v>
+      </c>
+      <c r="P15">
+        <v>0.2175341691008653</v>
+      </c>
+      <c r="Q15">
+        <v>0.8627400545866665</v>
+      </c>
+      <c r="R15">
+        <v>5.176440327519999</v>
+      </c>
+      <c r="S15">
+        <v>0.1724116103018359</v>
+      </c>
+      <c r="T15">
+        <v>0.2036840426224834</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.65342</v>
+      </c>
+      <c r="H16">
+        <v>5.306839999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.9566338165017548</v>
+      </c>
+      <c r="J16">
+        <v>0.9363312598860736</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.4959085</v>
+      </c>
+      <c r="N16">
+        <v>0.9918169999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.2748833077815291</v>
+      </c>
+      <c r="P16">
+        <v>0.2211891467080224</v>
+      </c>
+      <c r="Q16">
+        <v>1.31585353207</v>
+      </c>
+      <c r="R16">
+        <v>5.263414128279999</v>
+      </c>
+      <c r="S16">
+        <v>0.2629626678156707</v>
+      </c>
+      <c r="T16">
+        <v>0.2071063124102482</v>
       </c>
     </row>
   </sheetData>
